--- a/screen/list.xlsx
+++ b/screen/list.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ldallara\Documents\ArgoX3mobile\CORE\screen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\screen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7CDFAD-7B2C-407D-8548-F523A7A1D4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8C740A-0414-4905-AEF7-DFC412E81156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nuove videate" sheetId="1" r:id="rId1"/>
-    <sheet name="Nuovi campi in videata" sheetId="2" r:id="rId2"/>
+    <sheet name="Blocchi di Videata" sheetId="3" r:id="rId2"/>
+    <sheet name="Nuovi campi in videata" sheetId="2" r:id="rId3"/>
+    <sheet name="Parametri Azioni Campo" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,27 +28,243 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
-  <si>
-    <t>Codice</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="79">
   <si>
     <t>Descrizione</t>
   </si>
   <si>
-    <t>Alias</t>
-  </si>
-  <si>
-    <t>Campo</t>
-  </si>
-  <si>
-    <t>Cod.Att.</t>
-  </si>
-  <si>
     <t>Tipo</t>
   </si>
   <si>
-    <t>Videata</t>
+    <t>Cod Finestra</t>
+  </si>
+  <si>
+    <t>Cod Videata</t>
+  </si>
+  <si>
+    <t>Alias Videata</t>
+  </si>
+  <si>
+    <t>Cod Att</t>
+  </si>
+  <si>
+    <t>Modulo</t>
+  </si>
+  <si>
+    <t>Dimensione</t>
+  </si>
+  <si>
+    <t>Script Standard</t>
+  </si>
+  <si>
+    <t>Script Specifico</t>
+  </si>
+  <si>
+    <t>YSMR</t>
+  </si>
+  <si>
+    <t>YSMR1</t>
+  </si>
+  <si>
+    <t>YAX3M*</t>
+  </si>
+  <si>
+    <t>Entrate Diverse</t>
+  </si>
+  <si>
+    <t>Supervisore</t>
+  </si>
+  <si>
+    <t>Scheda</t>
+  </si>
+  <si>
+    <t>SUBYSMR1</t>
+  </si>
+  <si>
+    <t>YSMR_ENT</t>
+  </si>
+  <si>
+    <t>Titolo Blocco</t>
+  </si>
+  <si>
+    <t>Videata associata</t>
+  </si>
+  <si>
+    <t>Blocco (videata)</t>
+  </si>
+  <si>
+    <t>Tipo Blocco</t>
+  </si>
+  <si>
+    <t>Num</t>
+  </si>
+  <si>
+    <t>Visib AX3M</t>
+  </si>
+  <si>
+    <t>Cod Att (Blocco)</t>
+  </si>
+  <si>
+    <t>Riga</t>
+  </si>
+  <si>
+    <t>Opzioni</t>
+  </si>
+  <si>
+    <t>Parametro</t>
+  </si>
+  <si>
+    <t>Testata</t>
+  </si>
+  <si>
+    <t>Lista</t>
+  </si>
+  <si>
+    <t>Righe</t>
+  </si>
+  <si>
+    <t>Riquadro</t>
+  </si>
+  <si>
+    <t>KARID</t>
+  </si>
+  <si>
+    <t>NBLIG</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>Blocco</t>
+  </si>
+  <si>
+    <t>Posizione</t>
+  </si>
+  <si>
+    <t>Menù</t>
+  </si>
+  <si>
+    <t>Lung</t>
+  </si>
+  <si>
+    <t>Inserimento</t>
+  </si>
+  <si>
+    <t>Dim</t>
+  </si>
+  <si>
+    <t>Obblig</t>
+  </si>
+  <si>
+    <t>Legame</t>
+  </si>
+  <si>
+    <t>Valore di default</t>
+  </si>
+  <si>
+    <t>Oggetto Grafico</t>
+  </si>
+  <si>
+    <t>Inserimento Mobile</t>
+  </si>
+  <si>
+    <t>Azioni</t>
+  </si>
+  <si>
+    <t>FCY</t>
+  </si>
+  <si>
+    <t>Inserito</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Estesa</t>
+  </si>
+  <si>
+    <t>Nessuno</t>
+  </si>
+  <si>
+    <t>YCSTOENT,YSELFCYENT</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>ADI</t>
+  </si>
+  <si>
+    <t>Visualizzato</t>
+  </si>
+  <si>
+    <t>"ENC"</t>
+  </si>
+  <si>
+    <t>ABS</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>ITM</t>
+  </si>
+  <si>
+    <t>YAMITRENT,YSELITRENT,GSELECT</t>
+  </si>
+  <si>
+    <t>UOM</t>
+  </si>
+  <si>
+    <t>QTY</t>
+  </si>
+  <si>
+    <t>YCQTSTENT,YAMQTSTENT</t>
+  </si>
+  <si>
+    <t>EMP</t>
+  </si>
+  <si>
+    <t>YCLOCENT,YSELLOCENT,GSELECT</t>
+  </si>
+  <si>
+    <t>TEM</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>LOT</t>
+  </si>
+  <si>
+    <t>SER</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Finestra</t>
+  </si>
+  <si>
+    <t>YCLOTENT</t>
+  </si>
+  <si>
+    <t>YCSERNENT</t>
+  </si>
+  <si>
+    <t>Cod Campo</t>
+  </si>
+  <si>
+    <t>Azione</t>
+  </si>
+  <si>
+    <t>Esecuzione</t>
+  </si>
+  <si>
+    <t>Codice Parametro</t>
+  </si>
+  <si>
+    <t>Valore Parametro</t>
   </si>
 </sst>
 </file>
@@ -78,7 +296,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -86,16 +304,200 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -373,29 +775,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="89.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1"/>
+    <col min="8" max="8" width="17.21875" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -404,37 +857,819 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6CAB61-4E19-4D48-B29B-AF9E6005A9F4}">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{933A112A-BC8C-491C-85D1-E55A41508E51}">
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="49" customWidth="1"/>
+    <col min="1" max="1" width="25.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" customWidth="1"/>
+    <col min="10" max="10" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="13">
+        <v>5</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="16">
+        <v>2</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="16">
+        <v>10</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="16">
+        <v>100</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6CAB61-4E19-4D48-B29B-AF9E6005A9F4}">
+  <dimension ref="A1:P14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="16" max="16" width="36" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13">
+        <v>1</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="13">
+        <v>1</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" s="13"/>
+      <c r="P3" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="5">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" s="5"/>
+      <c r="P4" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" s="5"/>
+      <c r="P5" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" s="5"/>
+      <c r="P6" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="5">
+        <v>100</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" s="5"/>
+      <c r="P7" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5">
+        <v>3</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="5">
+        <v>100</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" s="5"/>
+      <c r="P8" s="10"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>4</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="5">
+        <v>100</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O9" s="5"/>
+      <c r="P9" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5">
+        <v>5</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="5">
+        <v>100</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10" s="5"/>
+      <c r="P10" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="5">
+        <v>100</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" s="5"/>
+      <c r="P11" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2</v>
+      </c>
+      <c r="D12" s="5">
+        <v>7</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="5">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
+      <c r="H12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="5">
+        <v>100</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O12" s="5"/>
+      <c r="P12" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5">
+        <v>8</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="5">
+        <v>100</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O13" s="5"/>
+      <c r="P13" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="16">
+        <v>2</v>
+      </c>
+      <c r="D14" s="16">
+        <v>9</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="16">
+        <v>100</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="O14" s="16"/>
+      <c r="P14" s="17" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{516D45F7-51E7-4967-8367-BACAF360ED8E}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="3" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+    <col min="8" max="9" width="18.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>